--- a/testingMain.xlsx
+++ b/testingMain.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenmcwilliams/Documents/GitHub/DroneReinforcementLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EB2BE2-D7B0-4E48-8AE4-21DF1A888B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65209E0B-F3C3-0341-A945-BD985C2895EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{B9AB1C9F-D96C-FB48-8DE6-776FAF523F48}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{B9AB1C9F-D96C-FB48-8DE6-776FAF523F48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Name of environment:</t>
   </si>
@@ -392,12 +391,18 @@
   <si>
     <t>starting position: (20,5)</t>
   </si>
+  <si>
+    <t>average percent successful: 0.7233333333333334</t>
+  </si>
+  <si>
+    <t>average number of steps of episodes that succeeded: 133.90322580645162</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +423,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DA72E7-08CB-1D4C-B904-7D0EB662211E}">
-  <dimension ref="A1:C309"/>
+  <dimension ref="A1:C312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,7 +977,7 @@
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1118,7 +1129,7 @@
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2333,8 +2344,21 @@
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
     </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:C35"/>
+    <mergeCell ref="A37:C65"/>
+    <mergeCell ref="A67:C95"/>
     <mergeCell ref="A250:C278"/>
     <mergeCell ref="A281:C309"/>
     <mergeCell ref="A97:C125"/>
@@ -2342,9 +2366,6 @@
     <mergeCell ref="A157:C185"/>
     <mergeCell ref="A188:C216"/>
     <mergeCell ref="A219:C247"/>
-    <mergeCell ref="A7:C35"/>
-    <mergeCell ref="A37:C65"/>
-    <mergeCell ref="A67:C95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
